--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -451,743 +451,1003 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004829</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰兴瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>000547</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>建信健康民生混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>89.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>北信瑞丰华丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>165524</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>信诚中证智能家居指数（LOF）</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>94.48</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001822</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商智能生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002194</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>北信瑞丰稳定增强偏债混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>64.87</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004829</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>北信瑞丰兴瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005376</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>北信瑞丰华丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>53.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>166301</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华商新趋势优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1478,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.31</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利转型机遇股票</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>008085</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>海富通先进制造股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>006864</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>国联安核心资产策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010135</t>
+          <t>010282</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
+          <t>中信建投智享生活混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010136</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010282</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合A</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010283</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合C</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006864</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国联安核心资产策略混合</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519005</t>
+          <t>008084</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海富通股票混合</t>
+          <t>海富通先进制造股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>94.98</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>10.11</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>泰达宏利转型机遇股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>010135</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>69.81</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>010283</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>中信建投智享生活混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008085</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海富通先进制造股票A</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008084</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海富通先进制造股票C</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>010136</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2190,25 +2800,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2835,4 +2836,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3614,4 +3615,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4507,4 +4508,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4516,7 +4517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4527,17 +4528,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4547,14 +4568,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.36</v>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4563,14 +4606,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4579,14 +4644,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.99</v>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4595,13 +4682,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5029,7 +5030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5040,17 +5041,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5060,14 +5081,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5076,14 +5119,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.36</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5092,14 +5157,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5108,14 +5195,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.99</v>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5124,13 +5233,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5618,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5629,17 +5630,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5649,14 +5670,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.02</v>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5665,14 +5708,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5681,14 +5746,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.36</v>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5697,14 +5784,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5713,14 +5822,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.99</v>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5729,13 +5860,181 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>4.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>8.99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.91</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -881,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2873,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3651,7 +4066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5037,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300379-东方通.xlsx
+++ b/数据整理/stocks/A股/创业板/300379-东方通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.72</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>4.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>8.99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1036 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004829</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰兴瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>北信瑞丰华丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1640,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9925</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1296,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1884,7 +3571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2396,7 +4083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3288,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4066,7 +5753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5450,1010 +7137,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6486</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8184</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7123</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6854</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6492</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5389</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166301</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商新趋势优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2728</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1980</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1615</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001822</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商智能生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1508</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1330</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1242</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002194</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>北信瑞丰稳定增强偏债混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1234</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1234</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1145</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004829</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>北信瑞丰兴瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000547</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>建信健康民生混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.71</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0578</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005376</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>北信瑞丰华丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>53.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>64.87</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>